--- a/resources/experiment 1/metrics/R2/average time/Retinopatía de fondo.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Retinopatía de fondo.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9967597069010559</v>
+        <v>0.9955494309793238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9967597069010559</v>
+        <v>0.9962973768916696</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9967597069010559</v>
+        <v>0.9960579398049054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9953328069994493</v>
+        <v>0.9962983603031225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9953328069994493</v>
+        <v>0.996427947679896</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9953328069994493</v>
+        <v>0.9964287679898766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9825225904314454</v>
+        <v>0.9949272161718722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9825225904314454</v>
+        <v>0.9951390687363776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9825225904314454</v>
+        <v>0.995171874322312</v>
       </c>
     </row>
   </sheetData>
